--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3237.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3237.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.509437355751278</v>
+        <v>1.312990069389343</v>
       </c>
       <c r="B1">
-        <v>2.682082493983324</v>
+        <v>1.287930727005005</v>
       </c>
       <c r="C1">
-        <v>3.259480517588008</v>
+        <v>1.101987242698669</v>
       </c>
       <c r="D1">
-        <v>3.869429045567741</v>
+        <v>1.16438889503479</v>
       </c>
       <c r="E1">
-        <v>1.528612056052756</v>
+        <v>1.007644534111023</v>
       </c>
     </row>
   </sheetData>
